--- a/src/render/店铺数据统计.xlsx
+++ b/src/render/店铺数据统计.xlsx
@@ -66,8 +66,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-01-05</v>
+        <v>2026-01-29</v>
       </c>
       <c r="B2" t="str">
         <v>草莓蛋糕</v>
@@ -443,17 +445,17 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>480</v>
-      </c>
-      <c r="F2">
-        <v>180</v>
-      </c>
-      <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2" t="str">
-        <v>62.5%</v>
+      <c r="E2" s="1">
+        <f>=C2*D2</f>
+      </c>
+      <c r="F2" s="1">
+        <f>=SUMIF(采购明细!A2, A2, 采购明细!$F$2:$F$3)</f>
+      </c>
+      <c r="G2" s="1">
+        <f>=E2-F2</f>
+      </c>
+      <c r="H2" s="2">
+        <f>=G2/E2</f>
       </c>
     </row>
   </sheetData>
@@ -465,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,13 +508,33 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2">
-        <v>200</v>
+      <c r="F2" s="1">
+        <f>=C2*E2</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B3" t="str">
+        <v>奶油</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>件</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3" s="1">
+        <f>=C3*E3</f>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -575,11 +597,11 @@
       <c r="C2">
         <v>32205</v>
       </c>
-      <c r="D2">
-        <v>25042</v>
-      </c>
-      <c r="E2" t="str">
-        <v>43.7%</v>
+      <c r="D2" s="1">
+        <f>=B2-C2</f>
+      </c>
+      <c r="E2" s="2">
+        <f>=D2/B2</f>
       </c>
       <c r="F2">
         <v>2400</v>
@@ -596,14 +618,14 @@
       <c r="J2">
         <v>100</v>
       </c>
-      <c r="K2">
-        <v>6000</v>
-      </c>
-      <c r="L2">
-        <v>19042</v>
-      </c>
-      <c r="M2" t="str">
-        <v>33.2%</v>
+      <c r="K2" s="1">
+        <f>=F2+G2+H2+I2+J2</f>
+      </c>
+      <c r="L2" s="1">
+        <f>=D2-K2</f>
+      </c>
+      <c r="M2" s="2">
+        <f>=L2/B2</f>
       </c>
     </row>
   </sheetData>

--- a/src/render/店铺数据统计.xlsx
+++ b/src/render/店铺数据统计.xlsx
@@ -449,7 +449,7 @@
         <f>=C2*D2</f>
       </c>
       <c r="F2" s="1">
-        <f>=SUMIF(采购明细!A2, A2, 采购明细!$F$2:$F$3)</f>
+        <f>=INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
       </c>
       <c r="G2" s="1">
         <f>=E2-F2</f>
@@ -591,11 +591,11 @@
       <c r="A2" t="str">
         <v>2026-01</v>
       </c>
-      <c r="B2">
-        <v>57247</v>
-      </c>
-      <c r="C2">
-        <v>32205</v>
+      <c r="B2" s="1">
+        <f>=SUMPRODUCT((TEXT(销售明细!$A$2:$A$2,"YYYY-MM")=A2)*销售明细!$E$2:$E$2)</f>
+      </c>
+      <c r="C2" s="1">
+        <f>=SUMPRODUCT((TEXT(采购明细!$A$2:$A$3,"YYYY-MM")=A2)*采购明细!$F$2:$F$3)</f>
       </c>
       <c r="D2" s="1">
         <f>=B2-C2</f>
@@ -604,19 +604,19 @@
         <f>=D2/B2</f>
       </c>
       <c r="F2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G2">
         <v>500</v>
       </c>
       <c r="H2">
-        <v>2400</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <f>=F2+G2+H2+I2+J2</f>
